--- a/renombramiento_lugares.xlsx
+++ b/renombramiento_lugares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08AD0B44-3262-4DF2-AC9E-FF54CE56D2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941BC3A2-0E22-40A6-95AA-66193EE2FBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7A802-5228-42D7-B323-9E804544AAA8}"/>
   </bookViews>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EAA50D-BF57-49C2-A952-D3A4682F3EA7}">
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B119"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1700,7 @@
         <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">

--- a/renombramiento_lugares.xlsx
+++ b/renombramiento_lugares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941BC3A2-0E22-40A6-95AA-66193EE2FBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CEF65-E712-4E8D-8FE8-15B8F32DD3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7A802-5228-42D7-B323-9E804544AAA8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="141">
   <si>
     <t>nom_original</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>GARITA</t>
+  </si>
+  <si>
+    <t>LOCAL COMERCIAL</t>
+  </si>
+  <si>
+    <t>OFICINAS</t>
   </si>
 </sst>
 </file>
@@ -811,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EAA50D-BF57-49C2-A952-D3A4682F3EA7}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +871,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -873,7 +879,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -881,7 +887,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -889,7 +895,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -897,7 +903,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -905,7 +911,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -913,7 +919,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -921,7 +927,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -929,7 +935,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -937,7 +943,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -945,15 +951,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -961,7 +967,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -969,7 +975,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -977,7 +983,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -985,7 +991,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -993,7 +999,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1001,7 +1007,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1009,7 +1015,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -1017,7 +1023,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1025,7 +1031,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -1033,39 +1039,39 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -1073,7 +1079,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -1081,7 +1087,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1089,7 +1095,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -1097,7 +1103,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -1105,7 +1111,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -1113,7 +1119,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -1121,7 +1127,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -1129,7 +1135,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -1137,7 +1143,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -1145,7 +1151,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -1153,7 +1159,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -1161,7 +1167,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -1169,7 +1175,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -1177,7 +1183,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -1185,7 +1191,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -1193,7 +1199,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -1201,23 +1207,23 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
@@ -1225,7 +1231,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
@@ -1233,7 +1239,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
@@ -1241,7 +1247,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1249,7 +1255,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
@@ -1257,7 +1263,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
@@ -1265,7 +1271,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -1273,23 +1279,23 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
@@ -1297,23 +1303,23 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>68</v>
@@ -1321,7 +1327,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
@@ -1329,23 +1335,23 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
@@ -1353,7 +1359,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
         <v>73</v>
@@ -1361,7 +1367,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
@@ -1369,7 +1375,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
@@ -1377,7 +1383,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
@@ -1385,23 +1391,23 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
         <v>81</v>
@@ -1409,7 +1415,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
@@ -1417,7 +1423,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
         <v>81</v>
@@ -1425,7 +1431,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
@@ -1433,23 +1439,23 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
         <v>88</v>
@@ -1457,23 +1463,23 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
         <v>92</v>
@@ -1481,7 +1487,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
         <v>92</v>
@@ -1489,23 +1495,23 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
@@ -1513,7 +1519,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
         <v>97</v>
@@ -1521,23 +1527,23 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
         <v>102</v>
@@ -1545,7 +1551,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
         <v>102</v>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
         <v>102</v>
@@ -1561,7 +1567,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
         <v>102</v>
@@ -1569,23 +1575,23 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
         <v>109</v>
@@ -1593,23 +1599,23 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
         <v>113</v>
@@ -1617,7 +1623,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
         <v>113</v>
@@ -1625,7 +1631,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
         <v>113</v>
@@ -1633,23 +1639,23 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
         <v>119</v>
@@ -1657,7 +1663,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B105" t="s">
         <v>119</v>
@@ -1665,7 +1671,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
         <v>119</v>
@@ -1673,7 +1679,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
         <v>119</v>
@@ -1681,7 +1687,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B108" t="s">
         <v>119</v>
@@ -1689,7 +1695,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
         <v>119</v>
@@ -1697,31 +1703,31 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B113" t="s">
         <v>129</v>
@@ -1729,7 +1735,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B114" t="s">
         <v>129</v>
@@ -1737,23 +1743,23 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
         <v>134</v>
@@ -1761,7 +1767,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
         <v>134</v>
@@ -1769,9 +1775,25 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>138</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B121" t="s">
         <v>134</v>
       </c>
     </row>

--- a/renombramiento_lugares.xlsx
+++ b/renombramiento_lugares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CEF65-E712-4E8D-8FE8-15B8F32DD3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC71971B-1B29-44AF-A241-4D311E01C2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7A802-5228-42D7-B323-9E804544AAA8}"/>
   </bookViews>
@@ -453,10 +453,10 @@
     <t>GARITA</t>
   </si>
   <si>
-    <t>LOCAL COMERCIAL</t>
-  </si>
-  <si>
     <t>OFICINAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL COMERCIAL </t>
   </si>
 </sst>
 </file>
@@ -820,7 +820,7 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +871,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>

--- a/renombramiento_lugares.xlsx
+++ b/renombramiento_lugares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC71971B-1B29-44AF-A241-4D311E01C2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91AF0BF-1A46-4E92-8E15-2ACE3EC93FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7A802-5228-42D7-B323-9E804544AAA8}"/>
   </bookViews>
@@ -453,10 +453,10 @@
     <t>GARITA</t>
   </si>
   <si>
+    <t>LOCAL COMERCIAL</t>
+  </si>
+  <si>
     <t>OFICINAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL COMERCIAL </t>
   </si>
 </sst>
 </file>
@@ -820,7 +820,7 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +871,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>

--- a/renombramiento_lugares.xlsx
+++ b/renombramiento_lugares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91AF0BF-1A46-4E92-8E15-2ACE3EC93FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22882981-B7A5-4DE5-BAA8-E979C5CF4F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7A802-5228-42D7-B323-9E804544AAA8}"/>
   </bookViews>
